--- a/Tests/1/Test_SingleRun2.xlsx
+++ b/Tests/1/Test_SingleRun2.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Answers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Vial #</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Load Time (min)</t>
-  </si>
-  <si>
-    <t>Run 1</t>
   </si>
   <si>
     <t>cpms_gRFW</t>
@@ -127,6 +124,27 @@
   <si>
     <t>Elution Period</t>
   </si>
+  <si>
+    <t>Phase I</t>
+  </si>
+  <si>
+    <t>Phase II Corrected</t>
+  </si>
+  <si>
+    <t>Phase III</t>
+  </si>
+  <si>
+    <t>Phase II</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
 </sst>
 </file>
 
@@ -172,6 +190,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,7 +278,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +319,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,7 +334,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +344,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,8 +663,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,60 +676,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32">
+      <c r="B2" s="37"/>
+      <c r="C2" s="35">
         <v>17896.21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="31">
+      <c r="B3" s="37"/>
+      <c r="C3" s="34">
         <v>11272.7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31">
+      <c r="B4" s="37"/>
+      <c r="C4" s="34">
         <v>2286.3000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="33">
+      <c r="B5" s="37"/>
+      <c r="C5" s="36">
         <v>0.88919999999999977</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29">
+      <c r="B6" s="37"/>
+      <c r="C6" s="32">
         <v>1.0523687869528029</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30">
+      <c r="B7" s="37"/>
+      <c r="C7" s="33">
         <v>60</v>
       </c>
     </row>
@@ -719,7 +748,7 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="31">
         <v>42177.599999999999</v>
       </c>
     </row>
@@ -727,7 +756,7 @@
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="31">
         <v>13410.5</v>
       </c>
     </row>
@@ -735,7 +764,7 @@
       <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="31">
         <v>4104.6000000000004</v>
       </c>
     </row>
@@ -743,7 +772,7 @@
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="31">
         <v>2033.4</v>
       </c>
     </row>
@@ -751,7 +780,7 @@
       <c r="B13" s="4">
         <v>5</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="31">
         <v>1297</v>
       </c>
     </row>
@@ -759,7 +788,7 @@
       <c r="B14" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="31">
         <v>1041</v>
       </c>
     </row>
@@ -767,7 +796,7 @@
       <c r="B15" s="4">
         <v>7</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="31">
         <v>718.9</v>
       </c>
     </row>
@@ -775,7 +804,7 @@
       <c r="B16" s="4">
         <v>8</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="31">
         <v>616.6</v>
       </c>
     </row>
@@ -783,7 +812,7 @@
       <c r="B17" s="4">
         <v>9</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="31">
         <v>513.29999999999995</v>
       </c>
     </row>
@@ -791,7 +820,7 @@
       <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="31">
         <v>410.2</v>
       </c>
     </row>
@@ -799,7 +828,7 @@
       <c r="B19" s="5">
         <v>11.5</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="31">
         <v>421.1</v>
       </c>
     </row>
@@ -807,7 +836,7 @@
       <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="31">
         <v>429.6</v>
       </c>
     </row>
@@ -815,7 +844,7 @@
       <c r="B21" s="4">
         <v>14.5</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="31">
         <v>302.10000000000002</v>
       </c>
     </row>
@@ -823,7 +852,7 @@
       <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="31">
         <v>320.5</v>
       </c>
     </row>
@@ -831,7 +860,7 @@
       <c r="B23" s="4">
         <v>17.5</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="31">
         <v>291.39999999999998</v>
       </c>
     </row>
@@ -839,7 +868,7 @@
       <c r="B24" s="4">
         <v>19</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="31">
         <v>230.4</v>
       </c>
     </row>
@@ -847,7 +876,7 @@
       <c r="B25" s="4">
         <v>20.5</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="31">
         <v>194</v>
       </c>
     </row>
@@ -855,7 +884,7 @@
       <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="31">
         <v>194.1</v>
       </c>
     </row>
@@ -863,7 +892,7 @@
       <c r="B27" s="4">
         <v>23.5</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="31">
         <v>272.10000000000002</v>
       </c>
     </row>
@@ -871,7 +900,7 @@
       <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="31">
         <v>178.1</v>
       </c>
     </row>
@@ -879,7 +908,7 @@
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="31">
         <v>183.3</v>
       </c>
     </row>
@@ -887,7 +916,7 @@
       <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="31">
         <v>170.3</v>
       </c>
     </row>
@@ -895,7 +924,7 @@
       <c r="B31" s="4">
         <v>31</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="31">
         <v>178.6</v>
       </c>
     </row>
@@ -903,7 +932,7 @@
       <c r="B32" s="4">
         <v>33</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="31">
         <v>178.7</v>
       </c>
     </row>
@@ -911,7 +940,7 @@
       <c r="B33" s="4">
         <v>35</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="31">
         <v>163.4</v>
       </c>
     </row>
@@ -919,7 +948,7 @@
       <c r="B34" s="4">
         <v>37</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="31">
         <v>143.69999999999999</v>
       </c>
     </row>
@@ -927,7 +956,7 @@
       <c r="B35" s="4">
         <v>39</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="31">
         <v>149.6</v>
       </c>
     </row>
@@ -935,7 +964,7 @@
       <c r="B36" s="4">
         <v>41</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="31">
         <v>150.5</v>
       </c>
     </row>
@@ -943,7 +972,7 @@
       <c r="B37" s="4">
         <v>43</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="31">
         <v>142.5</v>
       </c>
     </row>
@@ -951,7 +980,7 @@
       <c r="B38" s="4">
         <v>45</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="31">
         <v>88.8</v>
       </c>
     </row>
@@ -971,10 +1000,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,15 +1015,15 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="29">
         <v>17896.21</v>
       </c>
       <c r="D2" s="9"/>
@@ -1010,11 +1039,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="24">
+      <c r="B3" s="37"/>
+      <c r="C3" s="28">
         <v>11272.7</v>
       </c>
       <c r="D3" s="8"/>
@@ -1030,11 +1059,11 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="24">
+      <c r="B4" s="37"/>
+      <c r="C4" s="28">
         <v>2286.3000000000002</v>
       </c>
       <c r="D4" s="8"/>
@@ -1050,11 +1079,11 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="26">
+      <c r="B5" s="37"/>
+      <c r="C5" s="30">
         <v>0.88919999999999977</v>
       </c>
       <c r="D5" s="10"/>
@@ -1070,20 +1099,20 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="22">
+      <c r="B6" s="37"/>
+      <c r="C6" s="26">
         <v>1.0523687869528029</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="23">
+      <c r="B7" s="37"/>
+      <c r="C7" s="27">
         <v>60</v>
       </c>
       <c r="D7" s="6"/>
@@ -1099,11 +1128,11 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="18">
+      <c r="A8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="25">
         <v>45</v>
       </c>
       <c r="D8" s="18"/>
@@ -1119,12 +1148,12 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="37"/>
+      <c r="A9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="41"/>
       <c r="C9">
-        <f>C10+C11</f>
+        <f>C16+C10</f>
         <v>2.5297769926860925</v>
       </c>
       <c r="D9" s="19"/>
@@ -1140,73 +1169,73 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="39"/>
       <c r="C10">
-        <f>60*C19/(C2*(1-EXP(-1*C18*60)))</f>
-        <v>1.7503095759814058</v>
+        <f>60*(C13-(C22/C21)*EXP(-1*C21*C8))/C2/C7</f>
+        <v>0.77946741670468667</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="39"/>
       <c r="C11">
-        <f>60*(C20-(C19/C18)*EXP(-1*C18*C8))/C2/C7</f>
-        <v>0.77946741670468667</v>
+        <f>C16/C9</f>
+        <v>0.69188295294082192</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="39"/>
       <c r="C12">
-        <f>C10/C9</f>
-        <v>0.69188295294082192</v>
+        <f>C9*C17/(3*0.693)</f>
+        <v>18.12938580325342</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13">
-        <f>C9*C14/(3*0.693)</f>
-        <v>18.12938580325342</v>
+      <c r="A13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="19">
+        <f>(C3+C4)/C5</f>
+        <v>15248.53801169591</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
@@ -1221,15 +1250,16 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="35"/>
+      <c r="A14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="19">
-        <f>0.693/C18</f>
-        <v>14.898938994991781</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -1242,13 +1272,12 @@
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15">
-        <f>RSQ(C125:C144,$B125:$B144)</f>
-        <v>0.90051838441775112</v>
+      <c r="A15" s="38"/>
+      <c r="B15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19">
+        <v>30</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
@@ -1263,15 +1292,15 @@
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="19">
-        <f>SLOPE(C125:C144,$B125:$B144)</f>
-        <v>-2.0196864636098835E-2</v>
-      </c>
-      <c r="D16" s="18"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <f>60*C22/(C$2*(1-EXP(-1*C21*60)))</f>
+        <v>1.7503095759814058</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1284,13 +1313,13 @@
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="35"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="19">
-        <f>INTERCEPT(C125:C144,$B125:$B144)</f>
-        <v>2.6902182246789197</v>
+        <f>0.693/C21</f>
+        <v>14.898938994991781</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -1305,15 +1334,15 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="19">
-        <f>ABS(C16)*2.303</f>
-        <v>4.6513379256935619E-2</v>
-      </c>
-      <c r="D18" s="18"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f>RSQ(C145:C164,B145:B164)</f>
+        <v>0.90051838441775112</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1326,13 +1355,13 @@
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="35"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="19">
-        <f>10^C17</f>
-        <v>490.02498570854311</v>
+        <f>SLOPE(C145:C164,B145:B164)</f>
+        <v>-2.0196864636098835E-2</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1347,13 +1376,13 @@
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="35"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="19">
-        <f>(C3+C4)/C5</f>
-        <v>15248.53801169591</v>
+        <f>INTERCEPT(C145:C164,B145:B164)</f>
+        <v>2.6902182246789197</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -1367,232 +1396,255 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="19">
+        <f>ABS(C19)*2.303</f>
+        <v>4.6513379256935619E-2</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="19">
+        <f>10^C20</f>
+        <v>490.02498570854311</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="19">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f>60*C31/(C$2*(1-EXP(-1*C30*60)))</f>
+        <v>28.659720664711045</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="19">
+        <f>0.693/C30</f>
+        <v>1.7908175752854292</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f>RSQ(C296:C302,B296:B302)</f>
+        <v>0.99038163777821142</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19">
+        <f>SLOPE(C296:C302,B296:B302)</f>
+        <v>-0.16803043383990837</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="19">
+        <f>INTERCEPT(C296:C302,B296:B302)</f>
+        <v>3.9318817700334074</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="19">
+        <f>ABS(C28)*2.303</f>
+        <v>0.386974089133309</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="19">
+        <f>10^C29</f>
+        <v>8548.3396585783921</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="19">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="27">
-        <v>42177.599999999999</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="27">
-        <v>13410.5</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="19">
         <v>3</v>
-      </c>
-      <c r="C24" s="27">
-        <v>4104.6000000000004</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>4</v>
-      </c>
-      <c r="C25" s="27">
-        <v>2033.4</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="27">
-        <v>1297</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>6</v>
-      </c>
-      <c r="C27" s="27">
-        <v>1041</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>7</v>
-      </c>
-      <c r="C28" s="27">
-        <v>718.9</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>8</v>
-      </c>
-      <c r="C29" s="27">
-        <v>616.6</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>9</v>
-      </c>
-      <c r="C30" s="27">
-        <v>513.29999999999995</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>10</v>
-      </c>
-      <c r="C31" s="27">
-        <v>410.2</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>11.5</v>
-      </c>
-      <c r="C32" s="27">
-        <v>421.1</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>13</v>
-      </c>
-      <c r="C33" s="27">
-        <v>429.6</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1606,31 +1658,35 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="C34" s="27">
-        <v>302.10000000000002</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>16</v>
-      </c>
-      <c r="C35" s="27">
-        <v>320.5</v>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <f>60*C40/(C$2*(1-EXP(-1*C39*60)))</f>
+        <v>799.19612815864843</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="19">
+        <f>0.693/C39</f>
+        <v>0.43111643616634171</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1644,12 +1700,14 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="C36" s="27">
-        <v>291.39999999999998</v>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f>RSQ(C324:C326,B324:B326)</f>
+        <v>0.99055133023289044</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1663,12 +1721,14 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>19</v>
-      </c>
-      <c r="C37" s="27">
-        <v>230.4</v>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="19">
+        <f>SLOPE(C324:C326,B324:B326)</f>
+        <v>-0.69798279272108243</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1682,12 +1742,14 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="C38" s="27">
-        <v>194</v>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="19">
+        <f>INTERCEPT(C324:C326,B324:B326)</f>
+        <v>5.3772631880984338</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1701,12 +1763,14 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>22</v>
-      </c>
-      <c r="C39" s="27">
-        <v>194.1</v>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="19">
+        <f>ABS(C37)*2.303</f>
+        <v>1.6074543716366527</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1720,12 +1784,14 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="C40" s="27">
-        <v>272.10000000000002</v>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="19">
+        <f>10^C38</f>
+        <v>238376.36234523475</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1739,12 +1805,15 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>25</v>
-      </c>
-      <c r="C41" s="27">
-        <v>178.1</v>
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1754,15 +1823,16 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
-        <v>27</v>
-      </c>
-      <c r="C42" s="27">
-        <v>183.3</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="24">
+        <v>42177.599999999999</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1776,12 +1846,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
-        <v>29</v>
-      </c>
-      <c r="C43" s="27">
-        <v>170.3</v>
+        <v>2</v>
+      </c>
+      <c r="C43" s="24">
+        <v>13410.5</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1795,12 +1865,12 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
-        <v>31</v>
-      </c>
-      <c r="C44" s="27">
-        <v>178.6</v>
+        <v>3</v>
+      </c>
+      <c r="C44" s="24">
+        <v>4104.6000000000004</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1814,12 +1884,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
-        <v>33</v>
-      </c>
-      <c r="C45" s="27">
-        <v>178.7</v>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>4</v>
+      </c>
+      <c r="C45" s="24">
+        <v>2033.4</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1833,12 +1903,12 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
-        <v>35</v>
-      </c>
-      <c r="C46" s="27">
-        <v>163.4</v>
+        <v>5</v>
+      </c>
+      <c r="C46" s="24">
+        <v>1297</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1852,12 +1922,12 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
-        <v>37</v>
-      </c>
-      <c r="C47" s="27">
-        <v>143.69999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="C47" s="24">
+        <v>1041</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1871,12 +1941,12 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
-        <v>39</v>
-      </c>
-      <c r="C48" s="27">
-        <v>149.6</v>
+        <v>7</v>
+      </c>
+      <c r="C48" s="24">
+        <v>718.9</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1890,12 +1960,12 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
-        <v>41</v>
-      </c>
-      <c r="C49" s="27">
-        <v>150.5</v>
+        <v>8</v>
+      </c>
+      <c r="C49" s="24">
+        <v>616.6</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1909,12 +1979,12 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
-        <v>43</v>
-      </c>
-      <c r="C50" s="27">
-        <v>142.5</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="24">
+        <v>513.29999999999995</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -1928,12 +1998,12 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>45</v>
-      </c>
-      <c r="C51" s="27">
-        <v>88.8</v>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>10</v>
+      </c>
+      <c r="C51" s="24">
+        <v>410.2</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1947,1095 +2017,1075 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="4">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="C52" s="24">
+        <v>421.1</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>13</v>
+      </c>
+      <c r="C53" s="24">
+        <v>429.6</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="C54" s="24">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>16</v>
+      </c>
+      <c r="C55" s="24">
+        <v>320.5</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C56" s="24">
+        <v>291.39999999999998</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>19</v>
+      </c>
+      <c r="C57" s="24">
+        <v>230.4</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="C58" s="24">
+        <v>194</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>22</v>
+      </c>
+      <c r="C59" s="24">
+        <v>194.1</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="C60" s="24">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>25</v>
+      </c>
+      <c r="C61" s="24">
+        <v>178.1</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>27</v>
+      </c>
+      <c r="C62" s="24">
+        <v>183.3</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>29</v>
+      </c>
+      <c r="C63" s="24">
+        <v>170.3</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>31</v>
+      </c>
+      <c r="C64" s="24">
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>33</v>
+      </c>
+      <c r="C65" s="24">
+        <v>178.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>35</v>
+      </c>
+      <c r="C66" s="24">
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>37</v>
+      </c>
+      <c r="C67" s="24">
+        <v>143.69999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>39</v>
+      </c>
+      <c r="C68" s="24">
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>41</v>
+      </c>
+      <c r="C69" s="24">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>43</v>
+      </c>
+      <c r="C70" s="24">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>45</v>
+      </c>
+      <c r="C71" s="24">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
         <v>1</v>
       </c>
-      <c r="C53">
-        <f>C22*C$6</f>
+      <c r="C73">
+        <f>C42*C$6</f>
         <v>44386.389748580536</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
         <v>2</v>
       </c>
-      <c r="C54">
-        <f t="shared" ref="C54:C82" si="0">C23*C$6</f>
+      <c r="C74">
+        <f t="shared" ref="C74:C102" si="0">C43*C$6</f>
         <v>14112.791617430563</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
         <v>3</v>
       </c>
-      <c r="C55">
+      <c r="C75">
         <f t="shared" si="0"/>
         <v>4319.5529229264748</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="5">
         <v>4</v>
       </c>
-      <c r="C56">
+      <c r="C76">
         <f t="shared" si="0"/>
         <v>2139.8866913898296</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
         <v>5</v>
       </c>
-      <c r="C57">
+      <c r="C77">
         <f t="shared" si="0"/>
         <v>1364.9223166777854</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
         <v>6</v>
       </c>
-      <c r="C58">
+      <c r="C78">
         <f t="shared" si="0"/>
         <v>1095.5159072178678</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="C79">
         <f t="shared" si="0"/>
         <v>756.54792094036998</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
         <v>8</v>
       </c>
-      <c r="C60">
+      <c r="C80">
         <f t="shared" si="0"/>
         <v>648.89059403509827</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
         <v>9</v>
       </c>
-      <c r="C61">
+      <c r="C81">
         <f t="shared" si="0"/>
         <v>540.18089834287366</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="5">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
         <v>10</v>
       </c>
-      <c r="C62">
+      <c r="C82">
         <f t="shared" si="0"/>
         <v>431.68167640803972</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="5">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
         <v>11.5</v>
       </c>
-      <c r="C63">
+      <c r="C83">
         <f t="shared" si="0"/>
         <v>443.15249618582533</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="4">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
         <v>13</v>
       </c>
-      <c r="C64">
+      <c r="C84">
         <f t="shared" si="0"/>
         <v>452.09763087492416</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
         <v>14.5</v>
       </c>
-      <c r="C65">
+      <c r="C85">
         <f t="shared" si="0"/>
         <v>317.92061053844179</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="4">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="4">
         <v>16</v>
       </c>
-      <c r="C66">
+      <c r="C86">
         <f t="shared" si="0"/>
         <v>337.28419621837332</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="4">
         <v>17.5</v>
       </c>
-      <c r="C67">
+      <c r="C87">
         <f t="shared" si="0"/>
         <v>306.66026451804674</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="4">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="4">
         <v>19</v>
       </c>
-      <c r="C68">
+      <c r="C88">
         <f t="shared" si="0"/>
         <v>242.46576851392578</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="4">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="4">
         <v>20.5</v>
       </c>
-      <c r="C69">
+      <c r="C89">
         <f t="shared" si="0"/>
         <v>204.15954466884375</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="4">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="4">
         <v>22</v>
       </c>
-      <c r="C70">
+      <c r="C90">
         <f t="shared" si="0"/>
         <v>204.26478154753903</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="4">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="4">
         <v>23.5</v>
       </c>
-      <c r="C71">
+      <c r="C91">
         <f t="shared" si="0"/>
         <v>286.34954692985769</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="4">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="4">
         <v>25</v>
       </c>
-      <c r="C72">
+      <c r="C92">
         <f t="shared" si="0"/>
         <v>187.42688095629418</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="4">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
         <v>27</v>
       </c>
-      <c r="C73">
+      <c r="C93">
         <f t="shared" si="0"/>
         <v>192.89919864844879</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="4">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
         <v>29</v>
       </c>
-      <c r="C74">
+      <c r="C94">
         <f t="shared" si="0"/>
         <v>179.21840441806233</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="4">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="4">
         <v>31</v>
       </c>
-      <c r="C75">
+      <c r="C95">
         <f t="shared" si="0"/>
         <v>187.95306534977058</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="4">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="4">
         <v>33</v>
       </c>
-      <c r="C76">
+      <c r="C96">
         <f t="shared" si="0"/>
         <v>188.05830222846586</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
         <v>35</v>
       </c>
-      <c r="C77">
+      <c r="C97">
         <f t="shared" si="0"/>
         <v>171.957059788088</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
         <v>37</v>
       </c>
-      <c r="C78">
+      <c r="C98">
         <f t="shared" si="0"/>
         <v>151.22539468511778</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
         <v>39</v>
       </c>
-      <c r="C79">
+      <c r="C99">
         <f t="shared" si="0"/>
         <v>157.43437052813931</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
         <v>41</v>
       </c>
-      <c r="C80">
+      <c r="C100">
         <f t="shared" si="0"/>
         <v>158.38150243639683</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
         <v>43</v>
       </c>
-      <c r="C81">
+      <c r="C101">
         <f t="shared" si="0"/>
         <v>149.96255214077442</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
         <v>45</v>
       </c>
-      <c r="C82">
+      <c r="C102">
         <f t="shared" si="0"/>
         <v>93.450348281408893</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
         <v>1</v>
       </c>
-      <c r="C84">
-        <f>C53/C$5/($B53-$B52)</f>
+      <c r="C104">
+        <f>C73/C$5/($B73-$B72)</f>
         <v>49917.21744104875</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
         <v>2</v>
       </c>
-      <c r="C85">
-        <f t="shared" ref="C85:C113" si="1">C54/C$5/($B54-$B53)</f>
+      <c r="C105">
+        <f t="shared" ref="C105:C133" si="1">C74/C$5/($B74-$B73)</f>
         <v>15871.335602148636</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="C106">
         <f t="shared" si="1"/>
         <v>4857.796809408992</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="5">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C107">
         <f t="shared" si="1"/>
         <v>2406.5302422287787</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
         <v>5</v>
       </c>
-      <c r="C88">
+      <c r="C108">
         <f t="shared" si="1"/>
         <v>1535.0003561378608</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
         <v>6</v>
       </c>
-      <c r="C89">
+      <c r="C109">
         <f t="shared" si="1"/>
         <v>1232.0241871545975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C110">
         <f t="shared" si="1"/>
         <v>850.81862453932763</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C111">
         <f t="shared" si="1"/>
         <v>729.74650701203154</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
         <v>9</v>
       </c>
-      <c r="C92">
+      <c r="C112">
         <f t="shared" si="1"/>
         <v>607.49088882464446</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="5">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="5">
         <v>10</v>
       </c>
-      <c r="C93">
+      <c r="C113">
         <f t="shared" si="1"/>
         <v>485.47197076927557</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="5">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="5">
         <v>11.5</v>
       </c>
-      <c r="C94">
+      <c r="C114">
         <f t="shared" si="1"/>
         <v>332.24808530951077</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="4">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
         <v>13</v>
       </c>
-      <c r="C95">
+      <c r="C115">
         <f t="shared" si="1"/>
         <v>338.95458905002573</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="4">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
         <v>14.5</v>
       </c>
-      <c r="C96">
+      <c r="C116">
         <f t="shared" si="1"/>
         <v>238.35703294230163</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="4">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
         <v>16</v>
       </c>
-      <c r="C97">
+      <c r="C117">
         <f t="shared" si="1"/>
         <v>252.87464103941625</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="4">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
         <v>17.5</v>
       </c>
-      <c r="C98">
+      <c r="C118">
         <f t="shared" si="1"/>
         <v>229.91472823365334</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="4">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
         <v>19</v>
       </c>
-      <c r="C99">
+      <c r="C119">
         <f t="shared" si="1"/>
         <v>181.78570138995789</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="4">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="4">
         <v>20.5</v>
       </c>
-      <c r="C100">
+      <c r="C120">
         <f t="shared" si="1"/>
         <v>153.06608537175273</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="4">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="4">
         <v>22</v>
       </c>
-      <c r="C101">
+      <c r="C121">
         <f t="shared" si="1"/>
         <v>153.14498541575878</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="4">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="4">
         <v>23.5</v>
       </c>
-      <c r="C102">
+      <c r="C122">
         <f t="shared" si="1"/>
         <v>214.68701974048417</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="4">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="4">
         <v>25</v>
       </c>
-      <c r="C103">
+      <c r="C123">
         <f t="shared" si="1"/>
         <v>140.52097837478951</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="4">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="4">
         <v>27</v>
       </c>
-      <c r="C104">
+      <c r="C124">
         <f t="shared" si="1"/>
         <v>108.46783549732841</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="4">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="4">
         <v>29</v>
       </c>
-      <c r="C105">
+      <c r="C125">
         <f t="shared" si="1"/>
         <v>100.77508120673774</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="4">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="4">
         <v>31</v>
       </c>
-      <c r="C106">
+      <c r="C126">
         <f t="shared" si="1"/>
         <v>105.68660894611484</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="4">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="4">
         <v>33</v>
       </c>
-      <c r="C107">
+      <c r="C127">
         <f t="shared" si="1"/>
         <v>105.74578397911938</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="4">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="4">
         <v>35</v>
       </c>
-      <c r="C108">
+      <c r="C128">
         <f t="shared" si="1"/>
         <v>96.692003929424232</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="4">
         <v>37</v>
       </c>
-      <c r="C109">
+      <c r="C129">
         <f t="shared" si="1"/>
         <v>85.03452242752914</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="4">
         <v>39</v>
       </c>
-      <c r="C110">
+      <c r="C130">
         <f t="shared" si="1"/>
         <v>88.525849374797204</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="4">
         <v>41</v>
       </c>
-      <c r="C111">
+      <c r="C131">
         <f t="shared" si="1"/>
         <v>89.058424671838097</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="4">
         <v>43</v>
       </c>
-      <c r="C112">
+      <c r="C132">
         <f t="shared" si="1"/>
         <v>84.324422031474612</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="4">
         <v>45</v>
       </c>
-      <c r="C113">
+      <c r="C133">
         <f t="shared" si="1"/>
         <v>52.547429308034701</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" s="4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="4">
         <v>1</v>
       </c>
-      <c r="C115">
-        <f>LOG10(C84)</f>
+      <c r="C135">
+        <f>LOG10(C104)</f>
         <v>4.6982503682673347</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="4">
         <v>2</v>
       </c>
-      <c r="C116">
-        <f t="shared" ref="C116:C144" si="2">LOG10(C85)</f>
+      <c r="C136">
+        <f t="shared" ref="C136:C164" si="2">LOG10(C105)</f>
         <v>4.2006134749739141</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="4">
         <v>3</v>
       </c>
-      <c r="C117">
+      <c r="C137">
         <f t="shared" si="2"/>
         <v>3.6864393452986799</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="5">
         <v>4</v>
       </c>
-      <c r="C118">
+      <c r="C138">
         <f t="shared" si="2"/>
         <v>3.3813913237115085</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="4">
         <v>5</v>
       </c>
-      <c r="C119">
+      <c r="C139">
         <f t="shared" si="2"/>
         <v>3.1861084805745667</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="4">
         <v>6</v>
       </c>
-      <c r="C120">
+      <c r="C140">
         <f t="shared" si="2"/>
         <v>3.0906192340010228</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="4">
         <v>7</v>
       </c>
-      <c r="C121">
+      <c r="C141">
         <f t="shared" si="2"/>
         <v>2.9298369881020214</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="4">
         <v>8</v>
       </c>
-      <c r="C122">
+      <c r="C142">
         <f t="shared" si="2"/>
         <v>2.863172024880976</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="4">
         <v>9</v>
       </c>
-      <c r="C123">
+      <c r="C143">
         <f t="shared" si="2"/>
         <v>2.7835397687512491</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="5">
         <v>10</v>
       </c>
-      <c r="C124">
+      <c r="C144">
         <f t="shared" si="2"/>
         <v>2.6861641605228339</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="15">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="15">
         <v>11.5</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C145" s="16">
         <f t="shared" si="2"/>
         <v>2.5214624868550706</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="4">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="4">
         <v>13</v>
       </c>
-      <c r="C126">
+      <c r="C146">
         <f t="shared" si="2"/>
         <v>2.5301415181263045</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="4">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="4">
         <v>14.5</v>
       </c>
-      <c r="C127">
+      <c r="C147">
         <f t="shared" si="2"/>
         <v>2.3772279707080859</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="4">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="4">
         <v>16</v>
       </c>
-      <c r="C128">
+      <c r="C148">
         <f t="shared" si="2"/>
         <v>2.4029052792896417</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="4">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4">
         <v>17.5</v>
       </c>
-      <c r="C129">
+      <c r="C149">
         <f t="shared" si="2"/>
         <v>2.3615667928687767</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="4">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4">
         <v>19</v>
       </c>
-      <c r="C130">
+      <c r="C150">
         <f t="shared" si="2"/>
         <v>2.2595597201859796</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="4">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4">
         <v>20.5</v>
       </c>
-      <c r="C131">
+      <c r="C151">
         <f t="shared" si="2"/>
         <v>2.1848789753650313</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="4">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4">
         <v>22</v>
       </c>
-      <c r="C132">
+      <c r="C152">
         <f t="shared" si="2"/>
         <v>2.185102780823168</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="4">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4">
         <v>23.5</v>
       </c>
-      <c r="C133">
+      <c r="C153">
         <f t="shared" si="2"/>
         <v>2.331805787214563</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="4">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="4">
         <v>25</v>
       </c>
-      <c r="C134">
+      <c r="C154">
         <f t="shared" si="2"/>
         <v>2.1477411648980489</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="4">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="4">
         <v>27</v>
       </c>
-      <c r="C135">
+      <c r="C155">
         <f t="shared" si="2"/>
         <v>2.035300973788722</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="4">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="4">
         <v>29</v>
       </c>
-      <c r="C136">
+      <c r="C156">
         <f t="shared" si="2"/>
         <v>2.0033531567891063</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="4">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="4">
         <v>31</v>
       </c>
-      <c r="C137">
+      <c r="C157">
         <f t="shared" si="2"/>
         <v>2.024019963379033</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="4">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="4">
         <v>33</v>
       </c>
-      <c r="C138">
+      <c r="C158">
         <f t="shared" si="2"/>
         <v>2.0242630613321495</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="4">
-        <v>35</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="2"/>
-        <v>1.9853905610229021</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="4">
-        <v>37</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="2"/>
-        <v>1.9295952769607312</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="4">
-        <v>39</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="2"/>
-        <v>1.9470701023549479</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="4">
-        <v>41</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="2"/>
-        <v>1.9496750087563675</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="4">
-        <v>43</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="2"/>
-        <v>1.9259533731710343</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="4">
-        <v>45</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="2"/>
-        <v>1.7205514746051065</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B146" s="4">
-        <v>1</v>
-      </c>
-      <c r="C146" s="12">
-        <f>RSQ($B115:$B$144, $C115:$C$144)</f>
-        <v>0.70387799691199204</v>
-      </c>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B147" s="4">
-        <v>2</v>
-      </c>
-      <c r="C147" s="12">
-        <f>RSQ($B116:$B$144, $C116:$C$144)</f>
-        <v>0.75648316676452709</v>
-      </c>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B148" s="4">
-        <v>3</v>
-      </c>
-      <c r="C148" s="12">
-        <f>RSQ($B117:$B$144, $C117:$C$144)</f>
-        <v>0.81336336140520016</v>
-      </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B149" s="5">
-        <v>4</v>
-      </c>
-      <c r="C149" s="12">
-        <f>RSQ($B118:$B$144, $C118:$C$144)</f>
-        <v>0.84397731461741055</v>
-      </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B150" s="4">
-        <v>5</v>
-      </c>
-      <c r="C150" s="12">
-        <f>RSQ($B119:$B$144, $C119:$C$144)</f>
-        <v>0.85976899493186998</v>
-      </c>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B151" s="4">
-        <v>6</v>
-      </c>
-      <c r="C151" s="12">
-        <f>RSQ($B120:$B$144, $C120:$C$144)</f>
-        <v>0.86785015053223669</v>
-      </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B152" s="4">
-        <v>7</v>
-      </c>
-      <c r="C152" s="12">
-        <f>RSQ($B121:$B$144, $C121:$C$144)</f>
-        <v>0.87991853089380745</v>
-      </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B153" s="4">
-        <v>8</v>
-      </c>
-      <c r="C153" s="12">
-        <f>RSQ($B122:$B$144, $C122:$C$144)</f>
-        <v>0.88264934868641542</v>
-      </c>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B154" s="4">
-        <v>9</v>
-      </c>
-      <c r="C154" s="12">
-        <f>RSQ($B123:$B$144, $C123:$C$144)</f>
-        <v>0.88865253358303564</v>
-      </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B155" s="5">
-        <v>10</v>
-      </c>
-      <c r="C155" s="12">
-        <f>RSQ($B124:$B$144, $C124:$C$144)</f>
-        <v>0.89653647286250682</v>
-      </c>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B156" s="5">
-        <v>11.5</v>
-      </c>
-      <c r="C156" s="14">
-        <f>RSQ($B125:$B$144, $C125:$C$144)</f>
-        <v>0.90051838441775112</v>
-      </c>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B157" s="4">
-        <v>13</v>
-      </c>
-      <c r="C157" s="12">
-        <f>RSQ($B126:$B$144, $C126:$C$144)</f>
-        <v>0.88769238757871338</v>
-      </c>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B158" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="C158" s="12">
-        <f>RSQ($B127:$B$144, $C127:$C$144)</f>
-        <v>0.88145421376850086</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
@@ -3049,13 +3099,13 @@
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="4">
-        <v>16</v>
-      </c>
-      <c r="C159" s="12">
-        <f>RSQ($B128:$B$144, $C128:$C$144)</f>
-        <v>0.86392831723577812</v>
+        <v>35</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>1.9853905610229021</v>
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
@@ -3069,13 +3119,13 @@
       <c r="M159" s="12"/>
       <c r="N159" s="12"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="C160" s="12">
-        <f>RSQ($B129:$B$144, $C129:$C$144)</f>
-        <v>0.84357134065034312</v>
+        <v>37</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>1.9295952769607312</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
@@ -3091,11 +3141,11 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" s="4">
-        <v>19</v>
-      </c>
-      <c r="C161" s="12">
-        <f>RSQ($B130:$B$144, $C130:$C$144)</f>
-        <v>0.81832328871572113</v>
+        <v>39</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>1.9470701023549479</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
@@ -3111,11 +3161,11 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="C162" s="12">
-        <f>RSQ($B131:$B$144, $C131:$C$144)</f>
-        <v>0.78721401086239584</v>
+        <v>41</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>1.9496750087563675</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
@@ -3131,11 +3181,11 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" s="4">
-        <v>22</v>
-      </c>
-      <c r="C163" s="12">
-        <f>RSQ($B132:$B$144, $C132:$C$144)</f>
-        <v>0.77157572683346431</v>
+        <v>43</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>1.9259533731710343</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -3151,11 +3201,11 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B164" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="C164" s="12">
-        <f>RSQ($B133:$B$144, $C133:$C$144)</f>
-        <v>0.7429027990889906</v>
+        <v>45</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>1.7205514746051065</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
@@ -3170,12 +3220,11 @@
       <c r="N164" s="12"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
       <c r="B165" s="4">
-        <v>25</v>
-      </c>
-      <c r="C165" s="12">
-        <f>RSQ($B134:$B$144, $C134:$C$144)</f>
-        <v>0.7369984174333406</v>
+        <v>0</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
@@ -3191,11 +3240,11 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B166" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C166" s="12">
-        <f>RSQ($B135:$B$144, $C135:$C$144)</f>
-        <v>0.65031708944949274</v>
+        <f>RSQ($B135:$B$164, $C135:$C$164)</f>
+        <v>0.70387799691199204</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
@@ -3211,11 +3260,11 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B167" s="4">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C167" s="12">
-        <f>RSQ($B136:$B$144, $C136:$C$144)</f>
-        <v>0.6323669147111719</v>
+        <f>RSQ($B136:$B$164, $C136:$C$164)</f>
+        <v>0.75648316676452709</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -3231,31 +3280,31 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B168" s="4">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C168" s="12">
-        <f>RSQ($B137:$B$144, $C137:$C$144)</f>
-        <v>0.67233198565317853</v>
-      </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
+        <f>RSQ($B137:$B$164, $C137:$C$164)</f>
+        <v>0.81336336140520016</v>
+      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B169" s="4">
-        <v>33</v>
+      <c r="B169" s="5">
+        <v>4</v>
       </c>
       <c r="C169" s="12">
-        <f>RSQ($B138:$B$144, $C138:$C$144)</f>
-        <v>0.64576305699941983</v>
+        <f>RSQ($B138:$B$164, $C138:$C$164)</f>
+        <v>0.84397731461741055</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
@@ -3271,11 +3320,11 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B170" s="4">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C170" s="12">
-        <f>RSQ($B139:$B$144, $C139:$C$144)</f>
-        <v>0.56167601216202312</v>
+        <f>RSQ($B139:$B$164, $C139:$C$164)</f>
+        <v>0.85976899493186998</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
@@ -3291,11 +3340,11 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B171" s="4">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C171" s="12">
-        <f>RSQ($B140:$B$144, $C140:$C$144)</f>
-        <v>0.50382810964268887</v>
+        <f>RSQ($B140:$B$164, $C140:$C$164)</f>
+        <v>0.86785015053223669</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
@@ -3311,11 +3360,11 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B172" s="4">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C172" s="12">
-        <f>RSQ($B141:$B$144, $C141:$C$144)</f>
-        <v>0.67286173903619695</v>
+        <f>RSQ($B141:$B$164, $C141:$C$164)</f>
+        <v>0.87991853089380745</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
@@ -3331,11 +3380,11 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B173" s="4">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C173" s="12">
-        <f>RSQ($B142:$B$144, $C142:$C$144)</f>
-        <v>0.82673159380074845</v>
+        <f>RSQ($B142:$B$164, $C142:$C$164)</f>
+        <v>0.88264934868641542</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
@@ -3351,11 +3400,11 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B174" s="4">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C174" s="12">
-        <f>RSQ($B143:$B$144, $C143:$C$144)</f>
-        <v>0.99999999999999978</v>
+        <f>RSQ($B143:$B$164, $C143:$C$164)</f>
+        <v>0.88865253358303564</v>
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
@@ -3370,38 +3419,92 @@
       <c r="N174" s="12"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B175" s="4">
-        <v>45</v>
-      </c>
+      <c r="B175" s="5">
+        <v>10</v>
+      </c>
+      <c r="C175" s="12">
+        <f>RSQ($B144:$B$164, $C144:$C$164)</f>
+        <v>0.89653647286250682</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>14</v>
-      </c>
+      <c r="B176" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="C176" s="14">
+        <f>RSQ($B145:$B$164, $C145:$C$164)</f>
+        <v>0.90051838441775112</v>
+      </c>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C177" s="12">
+        <f>RSQ($B146:$B$164, $C146:$C$164)</f>
+        <v>0.88769238757871338</v>
+      </c>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.5</v>
+      </c>
+      <c r="C178" s="12">
+        <f>RSQ($B147:$B$164, $C147:$C$164)</f>
+        <v>0.88145421376850086</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C179" s="12">
-        <f>RSQ($B$115:$B116, $C$115:$C116)</f>
-        <v>0.99999999999999978</v>
+        <f>RSQ($B148:$B$164, $C148:$C$164)</f>
+        <v>0.86392831723577812</v>
       </c>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
@@ -3415,13 +3518,13 @@
       <c r="M179" s="12"/>
       <c r="N179" s="12"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="4">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="C180" s="12">
-        <f>RSQ($B$115:$B117, $C$115:$C117)</f>
-        <v>0.99991096369446031</v>
+        <f>RSQ($B149:$B$164, $C149:$C$164)</f>
+        <v>0.84357134065034312</v>
       </c>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
@@ -3435,13 +3538,13 @@
       <c r="M180" s="12"/>
       <c r="N180" s="12"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B181" s="5">
-        <v>4</v>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B181" s="4">
+        <v>19</v>
       </c>
       <c r="C181" s="12">
-        <f>RSQ($B$115:$B118, $C$115:$C118)</f>
-        <v>0.98828101846699823</v>
+        <f>RSQ($B150:$B$164, $C150:$C$164)</f>
+        <v>0.81832328871572113</v>
       </c>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
@@ -3455,13 +3558,13 @@
       <c r="M181" s="12"/>
       <c r="N181" s="12"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="4">
-        <v>5</v>
+        <v>20.5</v>
       </c>
       <c r="C182" s="12">
-        <f>RSQ($B$115:$B119, $C$115:$C119)</f>
-        <v>0.96699975403914884</v>
+        <f>RSQ($B151:$B$164, $C151:$C$164)</f>
+        <v>0.78721401086239584</v>
       </c>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
@@ -3475,13 +3578,13 @@
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C183" s="12">
-        <f>RSQ($B$115:$B120, $C$115:$C120)</f>
-        <v>0.93362654889054097</v>
+        <f>RSQ($B152:$B$164, $C152:$C$164)</f>
+        <v>0.77157572683346431</v>
       </c>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
@@ -3495,13 +3598,13 @@
       <c r="M183" s="12"/>
       <c r="N183" s="12"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="4">
-        <v>7</v>
+        <v>23.5</v>
       </c>
       <c r="C184" s="12">
-        <f>RSQ($B$115:$B121, $C$115:$C121)</f>
-        <v>0.91942256821966206</v>
+        <f>RSQ($B153:$B$164, $C153:$C$164)</f>
+        <v>0.7429027990889906</v>
       </c>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
@@ -3515,13 +3618,13 @@
       <c r="M184" s="12"/>
       <c r="N184" s="12"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C185" s="12">
-        <f>RSQ($B$115:$B122, $C$115:$C122)</f>
-        <v>0.89860973051660187</v>
+        <f>RSQ($B154:$B$164, $C154:$C$164)</f>
+        <v>0.7369984174333406</v>
       </c>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
@@ -3535,609 +3638,1235 @@
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="4">
+        <v>27</v>
+      </c>
+      <c r="C186" s="12">
+        <f>RSQ($B155:$B$164, $C155:$C$164)</f>
+        <v>0.65031708944949274</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B187" s="4">
+        <v>29</v>
+      </c>
+      <c r="C187" s="12">
+        <f>RSQ($B156:$B$164, $C156:$C$164)</f>
+        <v>0.6323669147111719</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B188" s="4">
+        <v>31</v>
+      </c>
+      <c r="C188" s="12">
+        <f>RSQ($B157:$B$164, $C157:$C$164)</f>
+        <v>0.67233198565317853</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B189" s="4">
+        <v>33</v>
+      </c>
+      <c r="C189" s="12">
+        <f>RSQ($B158:$B$164, $C158:$C$164)</f>
+        <v>0.64576305699941983</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B190" s="4">
+        <v>35</v>
+      </c>
+      <c r="C190" s="12">
+        <f>RSQ($B159:$B$164, $C159:$C$164)</f>
+        <v>0.56167601216202312</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B191" s="4">
+        <v>37</v>
+      </c>
+      <c r="C191" s="12">
+        <f>RSQ($B160:$B$164, $C160:$C$164)</f>
+        <v>0.50382810964268887</v>
+      </c>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B192" s="4">
+        <v>39</v>
+      </c>
+      <c r="C192" s="12">
+        <f>RSQ($B161:$B$164, $C161:$C$164)</f>
+        <v>0.67286173903619695</v>
+      </c>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B193" s="4">
+        <v>41</v>
+      </c>
+      <c r="C193" s="12">
+        <f>RSQ($B162:$B$164, $C162:$C$164)</f>
+        <v>0.82673159380074845</v>
+      </c>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B194" s="4">
+        <v>43</v>
+      </c>
+      <c r="C194" s="12">
+        <f>RSQ($B163:$B$164, $C163:$C$164)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B195" s="4">
+        <v>45</v>
+      </c>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B198" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B199" s="4">
+        <v>2</v>
+      </c>
+      <c r="C199" s="12">
+        <f>RSQ($B$135:$B136, $C$135:$C136)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B200" s="4">
+        <v>3</v>
+      </c>
+      <c r="C200" s="12">
+        <f>RSQ($B$135:$B137, $C$135:$C137)</f>
+        <v>0.99991096369446031</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B201" s="5">
+        <v>4</v>
+      </c>
+      <c r="C201" s="12">
+        <f>RSQ($B$135:$B138, $C$135:$C138)</f>
+        <v>0.98828101846699823</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B202" s="4">
+        <v>5</v>
+      </c>
+      <c r="C202" s="12">
+        <f>RSQ($B$135:$B139, $C$135:$C139)</f>
+        <v>0.96699975403914884</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B203" s="4">
+        <v>6</v>
+      </c>
+      <c r="C203" s="12">
+        <f>RSQ($B$135:$B140, $C$135:$C140)</f>
+        <v>0.93362654889054097</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B204" s="4">
+        <v>7</v>
+      </c>
+      <c r="C204" s="12">
+        <f>RSQ($B$135:$B141, $C$135:$C141)</f>
+        <v>0.91942256821966206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B205" s="4">
+        <v>8</v>
+      </c>
+      <c r="C205" s="12">
+        <f>RSQ($B$135:$B142, $C$135:$C142)</f>
+        <v>0.89860973051660187</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B206" s="4">
         <v>9</v>
       </c>
-      <c r="C186" s="12"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B187" s="5">
+      <c r="C206" s="12"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B207" s="5">
         <v>10</v>
       </c>
-      <c r="C187" s="12"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B188" s="15">
+      <c r="C207" s="12"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B208" s="15">
         <v>11.5</v>
       </c>
-      <c r="C188" s="13"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B189" s="4">
-        <v>13</v>
-      </c>
-      <c r="C189" s="12"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B190" s="4">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B191" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B192" s="4">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="4">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="4">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>18</v>
-      </c>
-      <c r="B208" s="4">
-        <v>0</v>
-      </c>
+      <c r="C208" s="13"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="4">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C209" s="12"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="4">
-        <v>2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="4">
-        <v>3</v>
-      </c>
-      <c r="C211">
-        <f>RSQ($B117:$B$124, C117:C$124)</f>
-        <v>0.94087291497366055</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="5">
-        <v>4</v>
-      </c>
-      <c r="C212">
-        <f>RSQ($B118:$B$124, C118:C$124)</f>
-        <v>0.97437169969072279</v>
+      <c r="B212" s="4">
+        <v>17.5</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="4">
-        <v>5</v>
-      </c>
-      <c r="C213">
-        <f>RSQ($B119:$B$124, C119:C$124)</f>
-        <v>0.98456696306103397</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="4">
-        <v>6</v>
-      </c>
-      <c r="C214">
-        <f>RSQ($B120:$B$124, C120:C$124)</f>
-        <v>0.97513497216198364</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="4">
-        <v>7</v>
-      </c>
-      <c r="C215">
-        <f>RSQ($B121:$B$124, C121:C$124)</f>
-        <v>0.99284094520843713</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="4">
-        <v>8</v>
-      </c>
-      <c r="C216">
-        <f>RSQ($B122:$B$124, C122:C$124)</f>
-        <v>0.99666179676348299</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="4">
-        <v>9</v>
-      </c>
-      <c r="C217">
-        <f>RSQ($B123:$B$124, C123:C$124)</f>
-        <v>0.99999999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="5">
-        <v>10</v>
+      <c r="B218" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="C219" s="16"/>
+      <c r="B219" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="4">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="4">
-        <v>14.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="4">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="4">
-        <v>17.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" s="4">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B226" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B227" s="4">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>17</v>
+      </c>
       <c r="B228" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B229" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B230" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B231" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <f>RSQ($B137:$B$144, C137:C$144)</f>
+        <v>0.94087291497366055</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="5">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <f>RSQ($B138:$B$144, C138:C$144)</f>
+        <v>0.97437169969072279</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <f>RSQ($B139:$B$144, C139:C$144)</f>
+        <v>0.98456696306103397</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B234" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C234">
+        <f>RSQ($B140:$B$144, C140:C$144)</f>
+        <v>0.97513497216198364</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B235" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C235">
+        <f>RSQ($B141:$B$144, C141:C$144)</f>
+        <v>0.99284094520843713</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B236" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C236">
+        <f>RSQ($B142:$B$144, C142:C$144)</f>
+        <v>0.99666179676348299</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B237" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C237">
+        <f>RSQ($B143:$B$144, C143:C$144)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="C239" s="16"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B240" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B241" s="4">
-        <v>2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242" s="4">
-        <v>3</v>
-      </c>
-      <c r="C242" s="12">
-        <f>SUM(C179,C211)</f>
-        <v>1.9408729149736603</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B243" s="5">
-        <v>4</v>
-      </c>
-      <c r="C243" s="12">
-        <f t="shared" ref="C243:C248" si="3">SUM(C180,C212)</f>
-        <v>1.9742826633851831</v>
-      </c>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
-      <c r="G243" s="12"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
-      <c r="J243" s="12"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
+      <c r="B243" s="4">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244" s="4">
-        <v>5</v>
-      </c>
-      <c r="C244" s="17">
-        <f>SUM(C181,C213)</f>
-        <v>1.9728479815280322</v>
-      </c>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
-      <c r="J244" s="12"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B245" s="4">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B246" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B247" s="4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B248" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B249" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B250" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B251" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B252" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B253" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B254" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B255" s="4">
+        <v>39</v>
+      </c>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="12"/>
+      <c r="J255" s="12"/>
+      <c r="K255" s="12"/>
+      <c r="L255" s="12"/>
+      <c r="M255" s="12"/>
+      <c r="N255" s="12"/>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B256" s="4">
+        <v>41</v>
+      </c>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="12"/>
+      <c r="J256" s="12"/>
+      <c r="K256" s="12"/>
+      <c r="L256" s="12"/>
+      <c r="M256" s="12"/>
+      <c r="N256" s="12"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B257" s="4">
+        <v>43</v>
+      </c>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
+      <c r="J257" s="12"/>
+      <c r="K257" s="12"/>
+      <c r="L257" s="12"/>
+      <c r="M257" s="12"/>
+      <c r="N257" s="12"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B258" s="4">
+        <v>45</v>
+      </c>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="12"/>
+      <c r="J258" s="12"/>
+      <c r="K258" s="12"/>
+      <c r="L258" s="12"/>
+      <c r="M258" s="12"/>
+      <c r="N258" s="12"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="12"/>
+      <c r="I259" s="12"/>
+      <c r="J259" s="12"/>
+      <c r="K259" s="12"/>
+      <c r="L259" s="12"/>
+      <c r="M259" s="12"/>
+      <c r="N259" s="12"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B260" s="4">
+        <v>1</v>
+      </c>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="12"/>
+      <c r="I260" s="12"/>
+      <c r="J260" s="12"/>
+      <c r="K260" s="12"/>
+      <c r="L260" s="12"/>
+      <c r="M260" s="12"/>
+      <c r="N260" s="12"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B261" s="4">
+        <v>2</v>
+      </c>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
+      <c r="I261" s="12"/>
+      <c r="J261" s="12"/>
+      <c r="K261" s="12"/>
+      <c r="L261" s="12"/>
+      <c r="M261" s="12"/>
+      <c r="N261" s="12"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B262" s="4">
+        <v>3</v>
+      </c>
+      <c r="C262" s="12">
+        <f>SUM(C199,C231)</f>
+        <v>1.9408729149736603</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B263" s="5">
+        <v>4</v>
+      </c>
+      <c r="C263" s="12">
+        <f t="shared" ref="C263:C268" si="3">SUM(C200,C232)</f>
+        <v>1.9742826633851831</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B264" s="4">
+        <v>5</v>
+      </c>
+      <c r="C264" s="17">
+        <f>SUM(C201,C233)</f>
+        <v>1.9728479815280322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B265" s="4">
         <v>6</v>
       </c>
-      <c r="C245" s="12">
+      <c r="C265" s="12">
         <f t="shared" si="3"/>
         <v>1.9421347262011324</v>
       </c>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="12"/>
-      <c r="G245" s="12"/>
-      <c r="H245" s="12"/>
-      <c r="I245" s="12"/>
-      <c r="J245" s="12"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
-      <c r="M245" s="12"/>
-      <c r="N245" s="12"/>
-    </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B246" s="4">
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B266" s="4">
         <v>7</v>
       </c>
-      <c r="C246" s="12">
+      <c r="C266" s="12">
         <f t="shared" si="3"/>
         <v>1.9264674940989781</v>
       </c>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
-      <c r="G246" s="12"/>
-      <c r="H246" s="12"/>
-      <c r="I246" s="12"/>
-      <c r="J246" s="12"/>
-      <c r="K246" s="12"/>
-      <c r="L246" s="12"/>
-      <c r="M246" s="12"/>
-      <c r="N246" s="12"/>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B247" s="4">
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B267" s="4">
         <v>8</v>
       </c>
-      <c r="C247" s="12">
+      <c r="C267" s="12">
         <f t="shared" si="3"/>
         <v>1.9160843649831452</v>
       </c>
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
-      <c r="F247" s="12"/>
-      <c r="G247" s="12"/>
-      <c r="H247" s="12"/>
-      <c r="I247" s="12"/>
-      <c r="J247" s="12"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
-      <c r="M247" s="12"/>
-      <c r="N247" s="12"/>
-    </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B248" s="4">
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B268" s="4">
         <v>9</v>
       </c>
-      <c r="C248" s="12">
+      <c r="C268" s="12">
         <f t="shared" si="3"/>
         <v>1.8986097305166016</v>
       </c>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
-      <c r="G248" s="12"/>
-      <c r="H248" s="12"/>
-      <c r="I248" s="12"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
-      <c r="M248" s="12"/>
-      <c r="N248" s="12"/>
-    </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B249" s="5">
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B269" s="5">
         <v>10</v>
       </c>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="12"/>
-      <c r="H249" s="12"/>
-      <c r="I249" s="12"/>
-      <c r="J249" s="12"/>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12"/>
-      <c r="M249" s="12"/>
-      <c r="N249" s="12"/>
-    </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B250" s="5">
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B270" s="5">
         <v>11.5</v>
       </c>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B251" s="4">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B271" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B252" s="4">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B272" s="4">
         <v>14.5</v>
       </c>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B253" s="4">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B254" s="4">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="4">
         <v>17.5</v>
       </c>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B255" s="4">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B256" s="4">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="4">
         <v>20.5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="4">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="4">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="4">
         <v>23.5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="4">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="4">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="4">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="4">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="4">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="4">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="4">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="4">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="4">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="4">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B289" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <f>MAX(C259:C289)</f>
+        <v>1.9742826633851831</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="C291">
+        <f>MATCH(C290,C260:C268,0)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>33</v>
+      </c>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="4">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <f t="shared" ref="C293:C301" si="4">LOG(10^C135-10^(C$19*$B293+C$20))</f>
+        <v>4.6941615471621363</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B294" s="4">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>4.1882204562483087</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B295" s="4">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>3.6465588767459431</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B296" s="5">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>3.3009612787196381</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B297" s="4">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>3.05942742289115</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="4">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>2.9351604234143913</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="4">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>2.6963140377516281</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B300" s="4">
+        <v>8</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>2.593240878555148</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B301" s="4">
+        <v>9</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>2.4549251929561429</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B302" s="5">
+        <v>10</v>
+      </c>
+      <c r="C302">
+        <f>LOG(10^C144-10^(C$19*$B302+C$20))</f>
+        <v>2.2496518977902458</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B303" s="15">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B304" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="4">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="4">
         <v>16</v>
       </c>
-      <c r="C270">
-        <f>MAX(C239:C269)</f>
-        <v>1.9742826633851831</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="4">
         <v>19</v>
       </c>
-      <c r="C271">
-        <f>MATCH(C270,C240:C248,0)-1</f>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="4">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B322" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>33</v>
+      </c>
+      <c r="B323" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B324" s="4">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <f t="shared" ref="C324:C326" si="5">LOG(10^C293-10^(C$28*$B324+C$29))</f>
+        <v>4.6399225847907335</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B325" s="4">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>4.0600132238295066</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B326" s="4">
         <v>3</v>
       </c>
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>3.2439569993485686</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B327" s="5">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <f>LOG(10^C296-10^(C$28*$B327+C$29))</f>
+        <v>2.2576495266682897</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B328" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B329" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B330" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B331" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B332" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B333" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B334" s="15">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B335" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B336" s="4">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="4">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="4">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="15">
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A40"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tests/1/Test_SingleRun2.xlsx
+++ b/Tests/1/Test_SingleRun2.xlsx
@@ -1002,8 +1002,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="19">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
@@ -1277,7 +1277,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="19">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
@@ -1446,7 +1446,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -1635,7 +1635,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
